--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value19.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value19.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.098620818462053</v>
+        <v>5.217382907867432</v>
       </c>
       <c r="B1">
-        <v>1.437762081009116</v>
+        <v>5.306960105895996</v>
       </c>
       <c r="C1">
-        <v>1.595410222073426</v>
+        <v>4.38273811340332</v>
       </c>
       <c r="D1">
-        <v>1.751697504483894</v>
+        <v>5.148453712463379</v>
       </c>
       <c r="E1">
-        <v>2.064848122622267</v>
+        <v>5.188767433166504</v>
       </c>
     </row>
   </sheetData>
